--- a/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
+++ b/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
@@ -558,12 +558,6 @@
     <t>Politik</t>
   </si>
   <si>
-    <t>2012-2019</t>
-  </si>
-  <si>
-    <t>04.06.2019</t>
-  </si>
-  <si>
     <t>quartalsweise</t>
   </si>
   <si>
@@ -643,6 +637,12 @@
   </si>
   <si>
     <t>parole</t>
+  </si>
+  <si>
+    <t>2012-heute</t>
+  </si>
+  <si>
+    <t>16.03.2021</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>74</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>76</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>82</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>59</v>
@@ -50734,7 +50734,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="28" t="s">
@@ -50746,10 +50746,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="16"/>
     </row>
@@ -50806,13 +50806,13 @@
         <v>35</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -50829,7 +50829,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>86</v>
@@ -50843,13 +50843,13 @@
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>85</v>
@@ -50863,13 +50863,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>53</v>
@@ -50880,13 +50880,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -51544,12 +51544,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51667,15 +51664,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51697,16 +51704,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
+++ b/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\abstimmungsparolen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\abstimmungsparolen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CCB13-90D1-48A4-B79E-6E590EB06BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -597,10 +598,6 @@
     <t>Kurzer Titel der Gemeindeabstimmung</t>
   </si>
   <si>
-    <t>Die Parolen der Parteien werden jeweils ca. 4 Wochen vor dem Abstimmungstermin erfasst. Die tatsächlichen Abstimmungsergebnisse werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik-abstimmungen-seit-1933) zur Verfügung gestellt.
-**Wichtig:** Es werden nur Parolen der im [Gemeinderat](https://www.gemeinderat-zuerich.ch/) vertretenen Parteien (zum Zeitpunkt der Gemeindeabstimmung) erhoben.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -624,9 +621,6 @@
     </r>
   </si>
   <si>
-    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/portal/de/index/politik_u_recht/abstimmungen_u_wahlen.html)</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
@@ -644,11 +638,18 @@
   <si>
     <t>16.03.2021</t>
   </si>
+  <si>
+    <t>[Weitere Informationen zu den Abstimmungen auf der Webseite der Stadtkanzlei](https://www.stadt-zuerich.ch/de/politik-und-verwaltung/politik-und-recht/abstimmen-waehlen.html)</t>
+  </si>
+  <si>
+    <t>Die Parolen der Parteien werden jeweils ca. 4 Wochen vor dem Abstimmungstermin erfasst. Die tatsächlichen Abstimmungsergebnisse werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik_abstimmungen_seit1933) zur Verfügung gestellt.
+**Wichtig:** Es werden nur Parolen der im [Gemeinderat](https://www.gemeinderat-zuerich.ch/) vertretenen Parteien (zum Zeitpunkt der Gemeindeabstimmung) erhoben.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1003,10 +1004,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1247,25 +1248,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.08203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="83.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="83.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="66.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
@@ -1312,7 +1313,7 @@
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>73</v>
@@ -1321,7 +1322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -1353,7 +1354,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>81</v>
@@ -1425,7 +1426,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
@@ -1450,7 +1451,7 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>80</v>
@@ -1459,7 +1460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1469,7 @@
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>58</v>
@@ -1477,7 +1478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>132</v>
       </c>
@@ -50698,14 +50699,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>42</v>
       </c>
@@ -50717,7 +50718,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
@@ -50726,7 +50727,7 @@
       </c>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="1:16384" ht="50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16384" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
@@ -50734,14 +50735,14 @@
         <v>131</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:16384" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16384" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
@@ -50749,11 +50750,11 @@
         <v>148</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -50761,14 +50762,14 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
@@ -50783,7 +50784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="17" t="s">
         <v>31</v>
@@ -50801,12 +50802,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>142</v>
@@ -50818,7 +50819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
@@ -50838,12 +50839,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:16384" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16384" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>141</v>
@@ -50858,12 +50859,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>144</v>
@@ -50875,12 +50876,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>146</v>
@@ -50889,7 +50890,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:16384" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16384" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -50897,73 +50898,73 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
     </row>
-    <row r="35" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
     </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -50976,24 +50977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="29" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="47.875" style="29" customWidth="1"/>
     <col min="4" max="4" width="74.25" style="29" customWidth="1"/>
-    <col min="5" max="5" width="89.08203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="89.125" style="29" customWidth="1"/>
     <col min="6" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -51010,7 +51011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
@@ -51025,7 +51026,7 @@
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="87.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>72</v>
       </c>
@@ -51040,7 +51041,7 @@
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -51055,7 +51056,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -51068,7 +51069,7 @@
       <c r="D5" s="23"/>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>28</v>
       </c>
@@ -51083,7 +51084,7 @@
       </c>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
@@ -51098,7 +51099,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -51113,7 +51114,7 @@
       </c>
       <c r="E8" s="33"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -51128,7 +51129,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>39</v>
       </c>
@@ -51143,7 +51144,7 @@
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
@@ -51160,7 +51161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -51175,7 +51176,7 @@
       </c>
       <c r="E12" s="34"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>43</v>
       </c>
@@ -51190,7 +51191,7 @@
       </c>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
@@ -51205,7 +51206,7 @@
       </c>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>65</v>
       </c>
@@ -51220,7 +51221,7 @@
       </c>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -51235,14 +51236,14 @@
       </c>
       <c r="E16" s="36"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
@@ -51255,7 +51256,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="17" t="s">
         <v>13</v>
@@ -51270,7 +51271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>68</v>
       </c>
@@ -51283,7 +51284,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="37"/>
     </row>
-    <row r="21" spans="1:5" ht="200" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
@@ -51296,7 +51297,7 @@
       <c r="D21" s="15"/>
       <c r="E21" s="37"/>
     </row>
-    <row r="22" spans="1:5" ht="225" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>68</v>
       </c>
@@ -51309,7 +51310,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" ht="50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -51322,14 +51323,14 @@
       <c r="D23" s="16"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
@@ -51342,7 +51343,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="17" t="s">
         <v>31</v>
@@ -51353,7 +51354,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>35</v>
       </c>
@@ -51368,7 +51369,7 @@
       </c>
       <c r="E27" s="37"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
@@ -51383,7 +51384,7 @@
       </c>
       <c r="E28" s="37"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
@@ -51398,7 +51399,7 @@
       </c>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>35</v>
       </c>
@@ -51413,7 +51414,7 @@
       </c>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
@@ -51428,7 +51429,7 @@
       </c>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -51443,7 +51444,7 @@
       </c>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>35</v>
       </c>
@@ -51458,7 +51459,7 @@
       </c>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>35</v>
       </c>
@@ -51473,7 +51474,7 @@
       </c>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -51488,49 +51489,49 @@
       </c>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="23"/>
       <c r="E36" s="39"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="23"/>
       <c r="E37" s="39"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="39"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -51550,6 +51551,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -51663,15 +51673,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
@@ -51688,6 +51689,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51701,12 +51710,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
+++ b/automation/abstimmungsparolen/Meta_Abstimmungsparolen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\abstimmungsparolen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6CCB13-90D1-48A4-B79E-6E590EB06BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7D7702-900E-47E0-A0FA-8DEB457ADD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="20400" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16632" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16633" uniqueCount="161">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -645,6 +645,9 @@
     <t>Die Parolen der Parteien werden jeweils ca. 4 Wochen vor dem Abstimmungstermin erfasst. Die tatsächlichen Abstimmungsergebnisse werden nach dem Abstimmungstermin im Datensatz ["Abstimmungsresultate seit 1933"](/dataset/politik_abstimmungen_seit1933) zur Verfügung gestellt.
 **Wichtig:** Es werden nur Parolen der im [Gemeinderat](https://www.gemeinderat-zuerich.ch/) vertretenen Parteien (zum Zeitpunkt der Gemeindeabstimmung) erhoben.</t>
   </si>
+  <si>
+    <t>cc-zero</t>
+  </si>
 </sst>
 </file>
 
@@ -1252,7 +1255,7 @@
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1560,7 +1563,9 @@
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>135</v>
       </c>
@@ -51545,21 +51550,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -51673,17 +51663,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51697,17 +51703,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>